--- a/User Story.xlsx
+++ b/User Story.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akasverm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akasverm\Desktop\CapCafe\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>User Story Name</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Learning about mockito and Junit to write test cases.</t>
   </si>
 </sst>
 </file>
@@ -450,13 +453,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -464,11 +470,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,7 +755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N12"/>
     </sheetView>
   </sheetViews>
@@ -818,16 +821,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -836,118 +839,118 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -956,138 +959,138 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
         <v>8</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="21"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1096,130 +1099,130 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="19">
+        <v>2</v>
+      </c>
+      <c r="H13" s="19">
         <v>16</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18">
         <v>43892</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="18">
         <v>43923</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="N14" s="22"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="N15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="N16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="N17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="N18" s="22"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1228,130 +1231,130 @@
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17">
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
         <v>8</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23">
+      <c r="I19" s="17"/>
+      <c r="J19" s="18">
         <v>43953</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="18">
         <v>43953</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="22"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="N20" s="22"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="N21" s="22"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="N22" s="22"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="N23" s="22"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="N24" s="22"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1360,130 +1363,130 @@
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="17">
-        <v>1</v>
-      </c>
-      <c r="H25" s="17">
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19">
         <v>8</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23">
+      <c r="I25" s="17"/>
+      <c r="J25" s="18">
         <v>43953</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="18">
         <v>43953</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="22"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="N26" s="22"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="11" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="N27" s="22"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="N28" s="22"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="N29" s="22"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="N30" s="22"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -1492,130 +1495,130 @@
       <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="G31" s="17">
-        <v>1</v>
-      </c>
-      <c r="H31" s="17">
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
         <v>8</v>
       </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23">
+      <c r="I31" s="17"/>
+      <c r="J31" s="18">
         <v>43923</v>
       </c>
-      <c r="K31" s="23">
+      <c r="K31" s="18">
         <v>43923</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N31" s="22"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="N32" s="22"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="N33" s="22"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="N33" s="17"/>
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="N34" s="22"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="N34" s="17"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="N35" s="22"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="N36" s="22"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -1624,130 +1627,130 @@
       <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
+      <c r="G37" s="19">
+        <v>1</v>
+      </c>
+      <c r="H37" s="19">
         <v>8</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23">
+      <c r="I37" s="17"/>
+      <c r="J37" s="18">
         <v>43953</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="18">
         <v>43953</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="22"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="N38" s="22"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="N38" s="17"/>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="N39" s="22"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="N40" s="22"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="N41" s="22"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="N42" s="22"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -1756,111 +1759,111 @@
       <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="17">
-        <v>1</v>
-      </c>
-      <c r="H43" s="17">
+      <c r="G43" s="19">
+        <v>1</v>
+      </c>
+      <c r="H43" s="19">
         <v>8</v>
       </c>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23">
+      <c r="I43" s="17"/>
+      <c r="J43" s="18">
         <v>43953</v>
       </c>
-      <c r="K43" s="23">
+      <c r="K43" s="18">
         <v>43953</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="22"/>
+      <c r="N43" s="17"/>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="N44" s="22"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="N44" s="17"/>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="N45" s="22"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="N45" s="17"/>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
       <c r="E46" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="N46" s="22"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="N46" s="17"/>
     </row>
     <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="E47" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="N47" s="22"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="N47" s="17"/>
     </row>
     <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B48" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -1869,137 +1872,182 @@
       <c r="F48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17">
+      <c r="G48" s="19">
+        <v>1</v>
+      </c>
+      <c r="H48" s="19">
         <v>8</v>
       </c>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23">
+      <c r="I48" s="17"/>
+      <c r="J48" s="18">
         <v>43984</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="18">
         <v>43984</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="22"/>
+      <c r="N48" s="17"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
       <c r="E49" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="N49" s="22"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="N49" s="17"/>
     </row>
     <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="N50" s="22"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="N50" s="17"/>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
       <c r="E51" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="N51" s="22"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="N51" s="17"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
       <c r="E52" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="N52" s="22"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="N52" s="17"/>
     </row>
     <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
       <c r="E53" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="N53" s="22"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="N53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="N48:N53"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="N7:N12"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="J19:J24"/>
+    <mergeCell ref="G13:G18"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="I13:I18"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="K13:K18"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="K19:K24"/>
+    <mergeCell ref="L19:L24"/>
+    <mergeCell ref="N19:N24"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
     <mergeCell ref="N25:N30"/>
     <mergeCell ref="N31:N36"/>
     <mergeCell ref="G43:G47"/>
@@ -2024,67 +2072,22 @@
     <mergeCell ref="I25:I30"/>
     <mergeCell ref="J25:J30"/>
     <mergeCell ref="K25:K30"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="N7:N12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J19:J24"/>
-    <mergeCell ref="G13:G18"/>
-    <mergeCell ref="H13:H18"/>
-    <mergeCell ref="I13:I18"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="K13:K18"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="K19:K24"/>
-    <mergeCell ref="L19:L24"/>
-    <mergeCell ref="N19:N24"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="N48:N53"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2153,16 +2156,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2171,130 +2174,130 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
         <v>8</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18">
         <v>43953</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="18">
         <v>43953</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="22"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="11" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="22"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="22"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="22"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -2303,143 +2306,143 @@
       <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
         <v>8</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="18">
         <v>43923</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>43923</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="22"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="22"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="22"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="22"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="17"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="22"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="M2:M7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2507,16 +2510,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2525,111 +2528,111 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="18">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="17"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2638,130 +2641,130 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="17">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
         <v>8</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="21"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="21"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="21"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="21"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -2770,102 +2773,127 @@
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="17">
-        <v>1</v>
-      </c>
-      <c r="H13" s="17">
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
         <v>8</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23">
+      <c r="I13" s="17"/>
+      <c r="J13" s="18">
         <v>43953</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="18">
         <v>43953</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="22"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="22"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="22"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="22"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
     <mergeCell ref="L13:L17"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="A13:A17"/>
@@ -2874,31 +2902,6 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="H13:H17"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2908,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,6 +2929,7 @@
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2973,16 +2977,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2991,148 +2995,150 @@
       <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="17">
-        <v>2</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="19">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19">
         <v>16</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18">
         <v>43892</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="18">
         <v>43923</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="22"/>
+      <c r="N2" s="17" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="22"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="22"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3141,149 +3147,149 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
         <v>8</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="18">
         <v>43953</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>43953</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="19" t="s">
         <v>50</v>
       </c>
       <c r="M8" s="16"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="22"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="16"/>
-      <c r="N12" s="22"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="N8:N13"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="N2:N7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3355,16 +3361,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3373,136 +3379,136 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="17">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17">
+      <c r="G2" s="19">
+        <v>1</v>
+      </c>
+      <c r="H2" s="19">
         <v>8</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18">
         <v>43953</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="18">
         <v>43953</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="19" t="s">
         <v>106</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="22"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="22"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="22"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="22"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="22"/>
+      <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3511,149 +3517,149 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
         <v>8</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23">
+      <c r="I8" s="17"/>
+      <c r="J8" s="18">
         <v>43984</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>43984</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="19" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="22"/>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="22"/>
+      <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="22"/>
+      <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="22"/>
+      <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="N8:N13"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="K2:K7"/>
     <mergeCell ref="L2:L7"/>
     <mergeCell ref="N2:N7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="H2:H7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/User Story.xlsx
+++ b/User Story.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akasverm\Desktop\CapCafe\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akasverm\Desktop\capcafe docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="UserStory" sheetId="1" r:id="rId1"/>
-    <sheet name="Rifat" sheetId="2" r:id="rId2"/>
+    <sheet name="Supriya" sheetId="2" r:id="rId2"/>
     <sheet name="Harshita" sheetId="4" r:id="rId3"/>
     <sheet name="Akash" sheetId="5" r:id="rId4"/>
     <sheet name="Sameer" sheetId="6" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="110">
   <si>
     <t>User Story Name</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>Learning about mockito and Junit to write test cases.</t>
+  </si>
+  <si>
+    <t>Supriya Pawar</t>
   </si>
 </sst>
 </file>
@@ -453,16 +456,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -470,8 +470,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N7" sqref="N7:N12"/>
     </sheetView>
   </sheetViews>
@@ -821,16 +824,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -839,118 +842,118 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="20">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -959,138 +962,138 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
         <v>8</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="22"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="22"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="22"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1099,130 +1102,130 @@
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="19">
-        <v>2</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
         <v>16</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18">
+      <c r="I13" s="22"/>
+      <c r="J13" s="23">
         <v>43892</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="23">
         <v>43923</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="17"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="N14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="N15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="N16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="N17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="N18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="11" t="s">
@@ -1231,130 +1234,130 @@
       <c r="F19" s="4">
         <v>2</v>
       </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="17">
         <v>8</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18">
+      <c r="I19" s="22"/>
+      <c r="J19" s="23">
         <v>43953</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="23">
         <v>43953</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="17"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="N20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="N21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="N22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
       <c r="E23" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="N23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="N24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1363,130 +1366,130 @@
       <c r="F25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="19">
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
         <v>8</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18">
+      <c r="I25" s="22"/>
+      <c r="J25" s="23">
         <v>43953</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="23">
         <v>43953</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="17"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="N26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="11" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="N27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="N28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="N29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="N30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -1495,130 +1498,130 @@
       <c r="F31" s="14">
         <v>2</v>
       </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
         <v>8</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18">
+      <c r="I31" s="22"/>
+      <c r="J31" s="23">
         <v>43923</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="23">
         <v>43923</v>
       </c>
-      <c r="L31" s="19" t="s">
+      <c r="L31" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N31" s="17"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="N32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="N33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="N34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="N35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="N36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="11" t="s">
@@ -1627,130 +1630,130 @@
       <c r="F37" s="4">
         <v>2</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="17">
         <v>8</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18">
+      <c r="I37" s="22"/>
+      <c r="J37" s="23">
         <v>43953</v>
       </c>
-      <c r="K37" s="18">
+      <c r="K37" s="23">
         <v>43953</v>
       </c>
-      <c r="L37" s="19" t="s">
+      <c r="L37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N37" s="17"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="N38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="N39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="N40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="N41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="N41" s="22"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="N42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="N42" s="22"/>
     </row>
     <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -1759,111 +1762,111 @@
       <c r="F43" s="4">
         <v>2</v>
       </c>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="19">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="17">
         <v>8</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18">
+      <c r="I43" s="22"/>
+      <c r="J43" s="23">
         <v>43953</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="23">
         <v>43953</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="17"/>
+      <c r="N43" s="22"/>
     </row>
     <row r="44" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="N44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="N44" s="22"/>
     </row>
     <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="N45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="N45" s="22"/>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="N46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="N46" s="22"/>
     </row>
     <row r="47" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F47" s="4">
         <v>3</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="N47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="N47" s="22"/>
     </row>
     <row r="48" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D48" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -1872,143 +1875,176 @@
       <c r="F48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="19">
-        <v>1</v>
-      </c>
-      <c r="H48" s="19">
+      <c r="G48" s="17">
+        <v>1</v>
+      </c>
+      <c r="H48" s="17">
         <v>8</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18">
+      <c r="I48" s="22"/>
+      <c r="J48" s="23">
         <v>43984</v>
       </c>
-      <c r="K48" s="18">
+      <c r="K48" s="23">
         <v>43984</v>
       </c>
-      <c r="L48" s="19" t="s">
+      <c r="L48" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N48" s="17"/>
+      <c r="N48" s="22"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="N49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="N49" s="22"/>
     </row>
     <row r="50" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="N50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="N51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="N51" s="22"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="N52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="N52" s="22"/>
     </row>
     <row r="53" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="N53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="N53" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="N48:N53"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="L48:L53"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="D48:D53"/>
+    <mergeCell ref="G48:G53"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="N25:N30"/>
+    <mergeCell ref="N31:N36"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
     <mergeCell ref="K7:K12"/>
     <mergeCell ref="L7:L12"/>
     <mergeCell ref="N7:N12"/>
@@ -2033,61 +2069,28 @@
     <mergeCell ref="L19:L24"/>
     <mergeCell ref="N19:N24"/>
     <mergeCell ref="G7:G12"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="I31:I36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="N25:N30"/>
-    <mergeCell ref="N31:N36"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="I25:I30"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="N48:N53"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="N43:N47"/>
-    <mergeCell ref="L48:L53"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="D48:D53"/>
-    <mergeCell ref="G48:G53"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="K48:K53"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="M2:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2099,7 +2102,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K2" sqref="K2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2112,6 +2115,7 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -2156,16 +2160,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2174,130 +2178,130 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23">
         <v>43953</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="23">
         <v>43953</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="M2" s="17"/>
+      <c r="L2" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="11" t="s">
         <v>77</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="11" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -2306,143 +2310,143 @@
       <c r="F8" s="14">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
         <v>8</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18">
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
         <v>43923</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="23">
         <v>43923</v>
       </c>
-      <c r="L8" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="17"/>
+      <c r="L8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="11" t="s">
         <v>83</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="11" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="11" t="s">
         <v>85</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="11" t="s">
         <v>87</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2510,16 +2514,16 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -2528,111 +2532,111 @@
       <c r="F2" s="6">
         <v>2</v>
       </c>
-      <c r="G2" s="20">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="18">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="4" spans="1:13" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6">
         <v>1</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -2641,130 +2645,130 @@
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="17">
         <v>8</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="22"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="11" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="22"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="21"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="22"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="22"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -2773,127 +2777,102 @@
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
         <v>8</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18">
+      <c r="I13" s="22"/>
+      <c r="J13" s="23">
         <v>43953</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="23">
         <v>43953</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="17"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="E15" s="11" t="s">
         <v>94</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="11" t="s">
         <v>95</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
       <c r="E17" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="G7:G12"/>
-    <mergeCell ref="L7:L12"/>
-    <mergeCell ref="M7:M12"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="M2:M6"/>
-    <mergeCell ref="H7:H12"/>
-    <mergeCell ref="I7:I12"/>
-    <mergeCell ref="J7:J12"/>
-    <mergeCell ref="K7:K12"/>
-    <mergeCell ref="I13:I17"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K13:K17"/>
     <mergeCell ref="L13:L17"/>
     <mergeCell ref="M13:M17"/>
     <mergeCell ref="A13:A17"/>
@@ -2902,6 +2881,31 @@
     <mergeCell ref="D13:D17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="H13:H17"/>
+    <mergeCell ref="H7:H12"/>
+    <mergeCell ref="I7:I12"/>
+    <mergeCell ref="J7:J12"/>
+    <mergeCell ref="K7:K12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="J13:J17"/>
+    <mergeCell ref="K13:K17"/>
+    <mergeCell ref="L7:L12"/>
+    <mergeCell ref="M7:M12"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="G7:G12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2977,16 +2981,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2995,301 +2999,313 @@
       <c r="F2" s="4">
         <v>3</v>
       </c>
-      <c r="G2" s="19">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="17">
+        <v>2</v>
+      </c>
+      <c r="H2" s="17">
         <v>16</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23">
         <v>43892</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="23">
         <v>43923</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="11" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="11" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="11" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="4">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>8</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+      <c r="G8" s="17">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17">
+        <v>16</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
         <v>43953</v>
       </c>
-      <c r="K8" s="18">
-        <v>43953</v>
-      </c>
-      <c r="L8" s="19" t="s">
+      <c r="K8" s="23">
+        <v>43984</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="11" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="11" t="s">
         <v>72</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="11" t="s">
         <v>73</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="11" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3299,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K7"/>
     </sheetView>
   </sheetViews>
@@ -3361,16 +3377,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -3379,136 +3395,136 @@
       <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="19">
-        <v>1</v>
-      </c>
-      <c r="H2" s="19">
+      <c r="G2" s="17">
+        <v>1</v>
+      </c>
+      <c r="H2" s="17">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23">
         <v>43953</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="23">
         <v>43953</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="17" t="s">
         <v>106</v>
       </c>
       <c r="M2" s="4"/>
-      <c r="N2" s="17"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="11" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="17"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="11" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="17"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="11" t="s">
         <v>90</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="17"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3517,149 +3533,149 @@
       <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="17">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
         <v>8</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18">
+      <c r="I8" s="22"/>
+      <c r="J8" s="23">
         <v>43984</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K8" s="23">
         <v>43984</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="17" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="17"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
       <c r="E9" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="17"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="11" t="s">
         <v>99</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
       <c r="E12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="17"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
       <c r="E13" s="11" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="17"/>
+      <c r="N13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="K8:K13"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="G8:G13"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="G2:G7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="I2:I7"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="K8:K13"/>
-    <mergeCell ref="L8:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
